--- a/Blank template.xlsx
+++ b/Blank template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlson/Documents/GitHub/pharos-standard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93F56A5-372B-D243-9CD8-F80565F28712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F51C95-387A-3F42-8971-ABDD10B67793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12780" yWindow="760" windowWidth="21780" windowHeight="19140" xr2:uid="{ED439ACA-A8BD-8949-AE42-9D697BC62B76}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Sample ID</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Health notes</t>
   </si>
   <si>
-    <t>Life stage</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -125,6 +122,12 @@
   </si>
   <si>
     <t>GenBank accession</t>
+  </si>
+  <si>
+    <t>Parasite life stage</t>
+  </si>
+  <si>
+    <t>Host life stage</t>
   </si>
 </sst>
 </file>
@@ -216,9 +219,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -256,7 +259,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -362,7 +365,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -504,7 +507,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -512,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1271973B-1D2F-0048-99C0-5146FF7DE612}">
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AE1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -533,7 +536,7 @@
     <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.83203125" customWidth="1"/>
     <col min="16" max="16" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.33203125" customWidth="1"/>
@@ -549,10 +552,11 @@
     <col min="27" max="27" width="21.5" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="26" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,55 +597,58 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="AD1" s="3" t="s">
         <v>29</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
